--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_LSPMW_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_LSPMW_General.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-2.684682931388394</v>
+        <v>-2.804576371848287</v>
       </c>
       <c r="D2">
-        <v>0.007283625073260191</v>
+        <v>0.008269779080174233</v>
       </c>
       <c r="E2">
         <v>0.8216699661809614</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-1.134907905177314</v>
+        <v>-1.265911391011916</v>
       </c>
       <c r="D3">
-        <v>0.2564678886661964</v>
+        <v>0.2141504887976426</v>
       </c>
       <c r="E3">
         <v>0.8216699661809614</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.8354665786167996</v>
+        <v>-1.062767487446342</v>
       </c>
       <c r="D4">
-        <v>0.403494667871457</v>
+        <v>0.2953779265888301</v>
       </c>
       <c r="E4">
         <v>0.8216699661809614</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.09222277490861855</v>
+        <v>-0.1008890171654989</v>
       </c>
       <c r="D5">
-        <v>0.9265247094063018</v>
+        <v>0.9202311652240653</v>
       </c>
       <c r="E5">
         <v>0.8216699661809614</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>1.465803968571939</v>
+        <v>1.604527576742994</v>
       </c>
       <c r="D6">
-        <v>0.1427640945480553</v>
+        <v>0.1178478837544774</v>
       </c>
       <c r="E6">
         <v>0.8754429295818204</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>1.528298509112425</v>
+        <v>1.597934885378422</v>
       </c>
       <c r="D7">
-        <v>0.1265012059453496</v>
+        <v>0.119310952010006</v>
       </c>
       <c r="E7">
         <v>0.8754429295818204</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>2.70212434085354</v>
+        <v>2.910323198002666</v>
       </c>
       <c r="D8">
-        <v>0.006912878690565671</v>
+        <v>0.006327709065648612</v>
       </c>
       <c r="E8">
         <v>0.8754429295818204</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.1563898705598737</v>
+        <v>0.2323940787152471</v>
       </c>
       <c r="D9">
-        <v>0.8757319859925667</v>
+        <v>0.8176251744173162</v>
       </c>
       <c r="E9">
         <v>0.8430854905192374</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.9119074490208241</v>
+        <v>0.8388666675749418</v>
       </c>
       <c r="D10">
-        <v>0.3618610630697454</v>
+        <v>0.407403519460789</v>
       </c>
       <c r="E10">
         <v>0.8430854905192374</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.7576731212354879</v>
+        <v>0.6966178590831357</v>
       </c>
       <c r="D11">
-        <v>0.4486821235055496</v>
+        <v>0.4907775309287745</v>
       </c>
       <c r="E11">
         <v>0.8398714739532022</v>
